--- a/core/test/integration/etalon.xlsx
+++ b/core/test/integration/etalon.xlsx
@@ -623,9 +623,8 @@
       <c r="C9" s="15" t="n">
         <v>50</v>
       </c>
-      <c r="D9" s="4">
-        <f>SUM(E1:F1)</f>
-        <v>0</v>
+      <c r="D9" s="4" t="str">
+        <v>ERROR: Formula references to empty range</v>
       </c>
     </row>
     <row r="10" customHeight="true">
@@ -635,9 +634,8 @@
       <c r="C10" s="15" t="n">
         <v>500</v>
       </c>
-      <c r="D10" s="4">
-        <f>SUM(E1:F1)</f>
-        <v>0</v>
+      <c r="D10" s="4" t="str">
+        <v>ERROR: Formula references to empty range</v>
       </c>
     </row>
   </sheetData>
